--- a/Income/DXCM_inc.xlsx
+++ b/Income/DXCM_inc.xlsx
@@ -2153,10 +2153,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.6748</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.6644</v>
@@ -2282,10 +2280,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1539</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.1554</v>
@@ -2411,10 +2407,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.1104</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.1168</v>
@@ -2540,10 +2534,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.2536</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2562</v>
@@ -2669,10 +2661,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.1165</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1436</v>
@@ -3687,10 +3677,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.1909</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.1903</v>
@@ -3816,10 +3804,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.2475</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.2468</v>
